--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,17 +33,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +81,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,42 +113,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,36 +138,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -259,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -502,251 +440,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F4:F5"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3">
         <v>43031</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>8852</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
         <v>43417</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>9352</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>C3-C2</f>
         <v>500</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>4.5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>D3*E3</f>
         <v>2250</v>
       </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
         <v>43724</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>10352</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>C4-C3</f>
         <v>1000</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="5">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>D4*E4</f>
         <v>4490</v>
       </c>
+      <c r="G4" s="8">
+        <v>4490</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4570</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4490</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <f>SUM(H5,-G5)</f>
         <v>80</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -756,12 +607,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -770,12 +621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -440,17 +442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
@@ -464,7 +466,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -490,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43031</v>
       </c>
@@ -506,7 +508,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43417</v>
       </c>
@@ -530,7 +532,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43724</v>
       </c>
@@ -558,46 +560,76 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11211</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-C4</f>
+        <v>859</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5*E5</f>
+        <v>3856.9100000000003</v>
       </c>
       <c r="G5" s="8">
-        <v>4490</v>
+        <v>3856.91</v>
       </c>
       <c r="H5" s="8">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(G2:G5)</f>
+        <v>8346.91</v>
+      </c>
       <c r="H6" s="8">
-        <f>SUM(H5,-G5)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f>SUM(H2:H5)</f>
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <f>SUM(H6,-G6)</f>
+        <v>80.090000000000146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -607,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -621,12 +653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т2</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,47 +592,105 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
+      <c r="A6" s="3">
+        <v>44089</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11428</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C5</f>
+        <v>217</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>1022.0699999999999</v>
       </c>
       <c r="G6" s="8">
-        <f>SUM(G2:G5)</f>
-        <v>8346.91</v>
+        <v>1022.07</v>
       </c>
       <c r="H6" s="8">
-        <f>SUM(H2:H5)</f>
-        <v>8427</v>
+        <v>1022.07</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="3">
+        <v>44089</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <f>SUM(H6,-G6)</f>
-        <v>80.090000000000146</v>
-      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(G2:G6)</f>
+        <v>9368.98</v>
+      </c>
+      <c r="H9" s="8">
+        <f>SUM(H2:H6)</f>
+        <v>9449.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <f>SUM(H9,-G9)</f>
+        <v>80.090000000000146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>Т2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -621,28 +618,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44089</v>
+        <v>44126</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+        <v>11632</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C6</f>
+        <v>204</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>960.84</v>
+      </c>
+      <c r="G7" s="5">
+        <v>960.84</v>
+      </c>
+      <c r="H7" s="8">
+        <v>961.5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -659,12 +664,12 @@
         <v>9</v>
       </c>
       <c r="G9" s="8">
-        <f>SUM(G2:G6)</f>
-        <v>9368.98</v>
+        <f>SUM(G2:G8)</f>
+        <v>10329.82</v>
       </c>
       <c r="H9" s="8">
-        <f>SUM(H2:H6)</f>
-        <v>9449.07</v>
+        <f>SUM(H2:H8)</f>
+        <v>10410.57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,7 +684,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8">
         <f>SUM(H9,-G9)</f>
-        <v>80.090000000000146</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>новый счет</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,18 +630,18 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>11632</v>
+        <v>11430</v>
       </c>
       <c r="D7" s="2">
         <f>C7-C6</f>
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <v>4.71</v>
       </c>
       <c r="F7" s="5">
         <f>D7*E7</f>
-        <v>960.84</v>
+        <v>9.42</v>
       </c>
       <c r="G7" s="5">
         <v>960.84</v>
@@ -645,31 +651,54 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="3">
+        <v>44126</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>202</v>
+      </c>
+      <c r="D8" s="2">
+        <v>202</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>951.42</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <f>SUM(G2:G8)</f>
-        <v>10329.82</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f>SUM(H2:H8)</f>
-        <v>10410.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -677,14 +706,17 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>10329.82</v>
+      </c>
       <c r="H10" s="8">
-        <f>SUM(H9,-G9)</f>
-        <v>80.75</v>
+        <f>SUM(H2:H9)</f>
+        <v>10410.57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,10 +724,25 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>4.5</v>
       </c>
       <c r="F3" s="5">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>2250</v>
       </c>
       <c r="G3" s="8"/>
@@ -556,7 +556,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>4490</v>
       </c>
       <c r="G4" s="8">
@@ -584,7 +584,7 @@
         <v>4.49</v>
       </c>
       <c r="F5" s="5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>3856.9100000000003</v>
       </c>
       <c r="G5" s="8">
@@ -612,7 +612,7 @@
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>1022.0699999999999</v>
       </c>
       <c r="G6" s="8">
@@ -640,7 +640,7 @@
         <v>4.71</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>9.42</v>
       </c>
       <c r="G7" s="5">
@@ -667,7 +667,7 @@
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>951.42</v>
       </c>
       <c r="G8" s="5">
@@ -702,36 +702,56 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>10329.82</v>
+      <c r="A10" s="3">
+        <v>44334</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>260</v>
+      </c>
+      <c r="D10" s="2">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+        <v>273.18</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>535.82999999999993</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>10410.57</v>
+        <v>525.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2">
+        <v>103</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>262.64999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
       <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
-        <v>80.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -739,10 +759,43 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>10329.82</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>10410.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -755,36 +755,55 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>10329.82</v>
+      <c r="A12" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>260</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>10410.57</v>
+        <v>523.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
       <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
-        <v>80.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,10 +811,43 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>10329.82</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>10410.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <f>SUM(H14,-G14)</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -807,36 +807,55 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>10329.82</v>
+      <c r="A14" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>260</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="3">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>10410.57</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
       <c r="H15" s="8">
-        <f>SUM(H14,-G14)</f>
-        <v>80.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,10 +863,43 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>10329.82</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>10410.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>SUM(H16,-G16)</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/152ee.xlsx
+++ b/sputnik/personal/ee/152ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -859,36 +859,55 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>10329.82</v>
+      <c r="A16" s="3">
+        <v>44495</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>260</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
       </c>
       <c r="H16" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>10410.57</v>
+        <v>589.76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
       <c r="H17" s="8">
-        <f>SUM(H16,-G16)</f>
-        <v>80.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -896,10 +915,43 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>10865.65</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>12643.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <f>SUM(H18,-G18)</f>
+        <v>1777.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
